--- a/Tabela Cetesb/Tabela_Cetesb.xlsx
+++ b/Tabela Cetesb/Tabela_Cetesb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Python/Tabela Cetesb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_42F580F53F4308100D2D4C1E7DAA3B31797877A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4DD017C-FA6F-44CF-A4E3-76220655DC77}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_42F580F53F4308100D2D4C1E7DAA3B31797877A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA31A5D7-7BFE-427F-9D8B-19BA5B049147}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="46500" yWindow="1830" windowWidth="14310" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1121,13 +1121,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4086,12 +4089,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4385,7 +4392,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+      <selection sqref="A1:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6432,8 +6439,8 @@
         <v>62-53-3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="87" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C87" t="s">
